--- a/natmiOut/OldD2/LR-pairs_lrc2p/H2-K1-Erbb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/H2-K1-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>247.953498606274</v>
+        <v>250.207855</v>
       </c>
       <c r="H2">
-        <v>247.953498606274</v>
+        <v>500.41571</v>
       </c>
       <c r="I2">
-        <v>0.2016437818355425</v>
+        <v>0.1944313714972807</v>
       </c>
       <c r="J2">
-        <v>0.2016437818355425</v>
+        <v>0.1397072982104585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.11164899610158</v>
+        <v>3.1122635</v>
       </c>
       <c r="N2">
-        <v>3.11164899610158</v>
+        <v>6.224527</v>
       </c>
       <c r="O2">
-        <v>0.2934421572218294</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P2">
-        <v>0.2934421572218294</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q2">
-        <v>771.544255018087</v>
+        <v>778.7127745297925</v>
       </c>
       <c r="R2">
-        <v>771.544255018087</v>
+        <v>3114.85109811917</v>
       </c>
       <c r="S2">
-        <v>0.05917078633218953</v>
+        <v>0.0548700307886772</v>
       </c>
       <c r="T2">
-        <v>0.05917078633218953</v>
+        <v>0.03230137072089469</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>247.953498606274</v>
+        <v>250.207855</v>
       </c>
       <c r="H3">
-        <v>247.953498606274</v>
+        <v>500.41571</v>
       </c>
       <c r="I3">
-        <v>0.2016437818355425</v>
+        <v>0.1944313714972807</v>
       </c>
       <c r="J3">
-        <v>0.2016437818355425</v>
+        <v>0.1397072982104585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.73417441399742</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N3">
-        <v>2.73417441399742</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O3">
-        <v>0.2578446474102063</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P3">
-        <v>0.2578446474102063</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q3">
-        <v>677.9481117504192</v>
+        <v>754.0812707508632</v>
       </c>
       <c r="R3">
-        <v>677.9481117504192</v>
+        <v>4524.487624505179</v>
       </c>
       <c r="S3">
-        <v>0.05199276982984601</v>
+        <v>0.05313443402575346</v>
       </c>
       <c r="T3">
-        <v>0.05199276982984601</v>
+        <v>0.04691946660612108</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>247.953498606274</v>
+        <v>250.207855</v>
       </c>
       <c r="H4">
-        <v>247.953498606274</v>
+        <v>500.41571</v>
       </c>
       <c r="I4">
-        <v>0.2016437818355425</v>
+        <v>0.1944313714972807</v>
       </c>
       <c r="J4">
-        <v>0.2016437818355425</v>
+        <v>0.1397072982104585</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.71057019711211</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N4">
-        <v>1.71057019711211</v>
+        <v>0.049457</v>
       </c>
       <c r="O4">
-        <v>0.1613142772044078</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P4">
-        <v>0.1613142772044078</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q4">
-        <v>424.1418649855714</v>
+        <v>4.124843294911666</v>
       </c>
       <c r="R4">
-        <v>424.1418649855714</v>
+        <v>24.74905976947</v>
       </c>
       <c r="S4">
-        <v>0.03252802091956383</v>
+        <v>0.000290646674862803</v>
       </c>
       <c r="T4">
-        <v>0.03252802091956383</v>
+        <v>0.0002566506485943894</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>247.953498606274</v>
+        <v>250.207855</v>
       </c>
       <c r="H5">
-        <v>247.953498606274</v>
+        <v>500.41571</v>
       </c>
       <c r="I5">
-        <v>0.2016437818355425</v>
+        <v>0.1944313714972807</v>
       </c>
       <c r="J5">
-        <v>0.2016437818355425</v>
+        <v>0.1397072982104585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.04756672882646</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N5">
-        <v>3.04756672882646</v>
+        <v>0.213661</v>
       </c>
       <c r="O5">
-        <v>0.2873989181635564</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P5">
-        <v>0.2873989181635564</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q5">
-        <v>755.6548326485986</v>
+        <v>17.81988683571834</v>
       </c>
       <c r="R5">
-        <v>755.6548326485986</v>
+        <v>106.91932101431</v>
       </c>
       <c r="S5">
-        <v>0.05795220475394311</v>
+        <v>0.001255633362271496</v>
       </c>
       <c r="T5">
-        <v>0.05795220475394311</v>
+        <v>0.001108765882065751</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>41.1052838342055</v>
+        <v>250.207855</v>
       </c>
       <c r="H6">
-        <v>41.1052838342055</v>
+        <v>500.41571</v>
       </c>
       <c r="I6">
-        <v>0.033428142503906</v>
+        <v>0.1944313714972807</v>
       </c>
       <c r="J6">
-        <v>0.033428142503906</v>
+        <v>0.1397072982104585</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.11164899610158</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N6">
-        <v>3.11164899610158</v>
+        <v>5.291263</v>
       </c>
       <c r="O6">
-        <v>0.2934421572218294</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P6">
-        <v>0.2934421572218294</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q6">
-        <v>127.9052151771761</v>
+        <v>441.3051884902883</v>
       </c>
       <c r="R6">
-        <v>127.9052151771761</v>
+        <v>2647.83113094173</v>
       </c>
       <c r="S6">
-        <v>0.009809226248264904</v>
+        <v>0.03109545659410356</v>
       </c>
       <c r="T6">
-        <v>0.009809226248264904</v>
+        <v>0.02745831896058181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>41.1052838342055</v>
+        <v>250.207855</v>
       </c>
       <c r="H7">
-        <v>41.1052838342055</v>
+        <v>500.41571</v>
       </c>
       <c r="I7">
-        <v>0.033428142503906</v>
+        <v>0.1944313714972807</v>
       </c>
       <c r="J7">
-        <v>0.033428142503906</v>
+        <v>0.1397072982104585</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.73417441399742</v>
+        <v>3.0507295</v>
       </c>
       <c r="N7">
-        <v>2.73417441399742</v>
+        <v>6.101459</v>
       </c>
       <c r="O7">
-        <v>0.2578446474102063</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P7">
-        <v>0.2578446474102063</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q7">
-        <v>112.3890153395864</v>
+        <v>763.3164843802225</v>
       </c>
       <c r="R7">
-        <v>112.3890153395864</v>
+        <v>3053.26593752089</v>
       </c>
       <c r="S7">
-        <v>0.008619267617497773</v>
+        <v>0.0537851700516122</v>
       </c>
       <c r="T7">
-        <v>0.008619267617497773</v>
+        <v>0.0316627253922008</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.1052838342055</v>
+        <v>44.51802933333334</v>
       </c>
       <c r="H8">
-        <v>41.1052838342055</v>
+        <v>133.554088</v>
       </c>
       <c r="I8">
-        <v>0.033428142503906</v>
+        <v>0.03459404381863301</v>
       </c>
       <c r="J8">
-        <v>0.033428142503906</v>
+        <v>0.03728596130493549</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.71057019711211</v>
+        <v>3.1122635</v>
       </c>
       <c r="N8">
-        <v>1.71057019711211</v>
+        <v>6.224527</v>
       </c>
       <c r="O8">
-        <v>0.1613142772044078</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P8">
-        <v>0.1613142772044078</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q8">
-        <v>70.31347347062612</v>
+        <v>138.5518377860627</v>
       </c>
       <c r="R8">
-        <v>70.31347347062612</v>
+        <v>831.3110267163761</v>
       </c>
       <c r="S8">
-        <v>0.00539243664630354</v>
+        <v>0.009762705651951793</v>
       </c>
       <c r="T8">
-        <v>0.00539243664630354</v>
+        <v>0.008620792716077987</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.1052838342055</v>
+        <v>44.51802933333334</v>
       </c>
       <c r="H9">
-        <v>41.1052838342055</v>
+        <v>133.554088</v>
       </c>
       <c r="I9">
-        <v>0.033428142503906</v>
+        <v>0.03459404381863301</v>
       </c>
       <c r="J9">
-        <v>0.033428142503906</v>
+        <v>0.03728596130493549</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.04756672882646</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N9">
-        <v>3.04756672882646</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O9">
-        <v>0.2873989181635564</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P9">
-        <v>0.2873989181635564</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q9">
-        <v>125.2710953920928</v>
+        <v>134.1692974867004</v>
       </c>
       <c r="R9">
-        <v>125.2710953920928</v>
+        <v>1207.523677380304</v>
       </c>
       <c r="S9">
-        <v>0.009607211991839783</v>
+        <v>0.009453901007898242</v>
       </c>
       <c r="T9">
-        <v>0.009607211991839783</v>
+        <v>0.01252216196815035</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>211.206330465796</v>
+        <v>44.51802933333334</v>
       </c>
       <c r="H10">
-        <v>211.206330465796</v>
+        <v>133.554088</v>
       </c>
       <c r="I10">
-        <v>0.1717597995677277</v>
+        <v>0.03459404381863301</v>
       </c>
       <c r="J10">
-        <v>0.1717597995677277</v>
+        <v>0.03728596130493549</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.11164899610158</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N10">
-        <v>3.11164899610158</v>
+        <v>0.049457</v>
       </c>
       <c r="O10">
-        <v>0.2934421572218294</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P10">
-        <v>0.2934421572218294</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q10">
-        <v>657.1999661641927</v>
+        <v>0.7339093922462223</v>
       </c>
       <c r="R10">
-        <v>657.1999661641927</v>
+        <v>6.605184530216</v>
       </c>
       <c r="S10">
-        <v>0.05040156610914305</v>
+        <v>5.17130735051386E-05</v>
       </c>
       <c r="T10">
-        <v>0.05040156610914305</v>
+        <v>6.849653722428531E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>211.206330465796</v>
+        <v>44.51802933333334</v>
       </c>
       <c r="H11">
-        <v>211.206330465796</v>
+        <v>133.554088</v>
       </c>
       <c r="I11">
-        <v>0.1717597995677277</v>
+        <v>0.03459404381863301</v>
       </c>
       <c r="J11">
-        <v>0.1717597995677277</v>
+        <v>0.03728596130493549</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.73417441399742</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N11">
-        <v>2.73417441399742</v>
+        <v>0.213661</v>
       </c>
       <c r="O11">
-        <v>0.2578446474102063</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P11">
-        <v>0.2578446474102063</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q11">
-        <v>577.4749448338631</v>
+        <v>3.170588888463112</v>
       </c>
       <c r="R11">
-        <v>577.4749448338631</v>
+        <v>28.535299996168</v>
       </c>
       <c r="S11">
-        <v>0.04428734495878844</v>
+        <v>0.0002234075459122353</v>
       </c>
       <c r="T11">
-        <v>0.04428734495878844</v>
+        <v>0.0002959144032164916</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>211.206330465796</v>
+        <v>44.51802933333334</v>
       </c>
       <c r="H12">
-        <v>211.206330465796</v>
+        <v>133.554088</v>
       </c>
       <c r="I12">
-        <v>0.1717597995677277</v>
+        <v>0.03459404381863301</v>
       </c>
       <c r="J12">
-        <v>0.1717597995677277</v>
+        <v>0.03728596130493549</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.71057019711211</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N12">
-        <v>1.71057019711211</v>
+        <v>5.291263</v>
       </c>
       <c r="O12">
-        <v>0.1613142772044078</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P12">
-        <v>0.1613142772044078</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q12">
-        <v>361.283254336202</v>
+        <v>78.51886714812711</v>
       </c>
       <c r="R12">
-        <v>361.283254336202</v>
+        <v>706.669804333144</v>
       </c>
       <c r="S12">
-        <v>0.02770730792004194</v>
+        <v>0.005532633852720953</v>
       </c>
       <c r="T12">
-        <v>0.02770730792004194</v>
+        <v>0.007328248641102039</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>211.206330465796</v>
+        <v>44.51802933333334</v>
       </c>
       <c r="H13">
-        <v>211.206330465796</v>
+        <v>133.554088</v>
       </c>
       <c r="I13">
-        <v>0.1717597995677277</v>
+        <v>0.03459404381863301</v>
       </c>
       <c r="J13">
-        <v>0.1717597995677277</v>
+        <v>0.03728596130493549</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.04756672882646</v>
+        <v>3.0507295</v>
       </c>
       <c r="N13">
-        <v>3.04756672882646</v>
+        <v>6.101459</v>
       </c>
       <c r="O13">
-        <v>0.2873989181635564</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P13">
-        <v>0.2873989181635564</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q13">
-        <v>643.6653856450862</v>
+        <v>135.8124653690654</v>
       </c>
       <c r="R13">
-        <v>643.6653856450862</v>
+        <v>814.8747922143921</v>
       </c>
       <c r="S13">
-        <v>0.04936358057975422</v>
+        <v>0.009569682686644643</v>
       </c>
       <c r="T13">
-        <v>0.04936358057975422</v>
+        <v>0.008450347039164337</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>529.7786517547451</v>
+        <v>247.50059</v>
       </c>
       <c r="H14">
-        <v>529.7786517547451</v>
+        <v>742.5017700000001</v>
       </c>
       <c r="I14">
-        <v>0.4308330855423494</v>
+        <v>0.1923276116174936</v>
       </c>
       <c r="J14">
-        <v>0.4308330855423494</v>
+        <v>0.2072934844575189</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.11164899610158</v>
+        <v>3.1122635</v>
       </c>
       <c r="N14">
-        <v>3.11164899610158</v>
+        <v>6.224527</v>
       </c>
       <c r="O14">
-        <v>0.2934421572218294</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P14">
-        <v>0.2934421572218294</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q14">
-        <v>1648.485209888701</v>
+        <v>770.2870524854651</v>
       </c>
       <c r="R14">
-        <v>1648.485209888701</v>
+        <v>4621.72231491279</v>
       </c>
       <c r="S14">
-        <v>0.126424590024084</v>
+        <v>0.05427633354482726</v>
       </c>
       <c r="T14">
-        <v>0.126424590024084</v>
+        <v>0.04792780173446291</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>529.7786517547451</v>
+        <v>247.50059</v>
       </c>
       <c r="H15">
-        <v>529.7786517547451</v>
+        <v>742.5017700000001</v>
       </c>
       <c r="I15">
-        <v>0.4308330855423494</v>
+        <v>0.1923276116174936</v>
       </c>
       <c r="J15">
-        <v>0.4308330855423494</v>
+        <v>0.2072934844575189</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.73417441399742</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N15">
-        <v>2.73417441399742</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O15">
-        <v>0.2578446474102063</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P15">
-        <v>0.2578446474102063</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q15">
-        <v>1448.507234709873</v>
+        <v>745.9220631534066</v>
       </c>
       <c r="R15">
-        <v>1448.507234709873</v>
+        <v>6713.29856838066</v>
       </c>
       <c r="S15">
-        <v>0.1110880050343183</v>
+        <v>0.052559516049926</v>
       </c>
       <c r="T15">
-        <v>0.1110880050343183</v>
+        <v>0.0696176924631339</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>529.7786517547451</v>
+        <v>247.50059</v>
       </c>
       <c r="H16">
-        <v>529.7786517547451</v>
+        <v>742.5017700000001</v>
       </c>
       <c r="I16">
-        <v>0.4308330855423494</v>
+        <v>0.1923276116174936</v>
       </c>
       <c r="J16">
-        <v>0.4308330855423494</v>
+        <v>0.2072934844575189</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.71057019711211</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N16">
-        <v>1.71057019711211</v>
+        <v>0.049457</v>
       </c>
       <c r="O16">
-        <v>0.1613142772044078</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P16">
-        <v>0.1613142772044078</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q16">
-        <v>906.223572757902</v>
+        <v>4.080212226543334</v>
       </c>
       <c r="R16">
-        <v>906.223572757902</v>
+        <v>36.72191003889</v>
       </c>
       <c r="S16">
-        <v>0.06949952779000888</v>
+        <v>0.0002875018592445146</v>
       </c>
       <c r="T16">
-        <v>0.06949952779000888</v>
+        <v>0.0003808105082332091</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>529.7786517547451</v>
+        <v>247.50059</v>
       </c>
       <c r="H17">
-        <v>529.7786517547451</v>
+        <v>742.5017700000001</v>
       </c>
       <c r="I17">
-        <v>0.4308330855423494</v>
+        <v>0.1923276116174936</v>
       </c>
       <c r="J17">
-        <v>0.4308330855423494</v>
+        <v>0.2072934844575189</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>3.04756672882646</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N17">
-        <v>3.04756672882646</v>
+        <v>0.213661</v>
       </c>
       <c r="O17">
-        <v>0.2873989181635564</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P17">
-        <v>0.2873989181635564</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q17">
-        <v>1614.535792730301</v>
+        <v>17.62707451999667</v>
       </c>
       <c r="R17">
-        <v>1614.535792730301</v>
+        <v>158.64367067997</v>
       </c>
       <c r="S17">
-        <v>0.1238209626939382</v>
+        <v>0.001242047328953278</v>
       </c>
       <c r="T17">
-        <v>0.1238209626939382</v>
+        <v>0.00164515344642044</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>171.396091490826</v>
+        <v>247.50059</v>
       </c>
       <c r="H18">
-        <v>171.396091490826</v>
+        <v>742.5017700000001</v>
       </c>
       <c r="I18">
-        <v>0.1393848293099515</v>
+        <v>0.1923276116174936</v>
       </c>
       <c r="J18">
-        <v>0.1393848293099515</v>
+        <v>0.2072934844575189</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.11164899610158</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N18">
-        <v>3.11164899610158</v>
+        <v>5.291263</v>
       </c>
       <c r="O18">
-        <v>0.2934421572218294</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P18">
-        <v>0.2934421572218294</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q18">
-        <v>533.3244760231632</v>
+        <v>436.5302381150566</v>
       </c>
       <c r="R18">
-        <v>533.3244760231632</v>
+        <v>3928.77214303551</v>
       </c>
       <c r="S18">
-        <v>0.04090138499670865</v>
+        <v>0.0307590017641933</v>
       </c>
       <c r="T18">
-        <v>0.04090138499670865</v>
+        <v>0.0407418272888686</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>171.396091490826</v>
+        <v>247.50059</v>
       </c>
       <c r="H19">
-        <v>171.396091490826</v>
+        <v>742.5017700000001</v>
       </c>
       <c r="I19">
-        <v>0.1393848293099515</v>
+        <v>0.1923276116174936</v>
       </c>
       <c r="J19">
-        <v>0.1393848293099515</v>
+        <v>0.2072934844575189</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.73417441399742</v>
+        <v>3.0507295</v>
       </c>
       <c r="N19">
-        <v>2.73417441399742</v>
+        <v>6.101459</v>
       </c>
       <c r="O19">
-        <v>0.2578446474102063</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P19">
-        <v>0.2578446474102063</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q19">
-        <v>468.6268080133773</v>
+        <v>755.057351180405</v>
       </c>
       <c r="R19">
-        <v>468.6268080133773</v>
+        <v>4530.344107082431</v>
       </c>
       <c r="S19">
-        <v>0.03593963216775623</v>
+        <v>0.0532032110703493</v>
       </c>
       <c r="T19">
-        <v>0.03593963216775623</v>
+        <v>0.04698019901639985</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>171.396091490826</v>
+        <v>530.364502</v>
       </c>
       <c r="H20">
-        <v>171.396091490826</v>
+        <v>1591.093506</v>
       </c>
       <c r="I20">
-        <v>0.1393848293099515</v>
+        <v>0.4121353325111727</v>
       </c>
       <c r="J20">
-        <v>0.1393848293099515</v>
+        <v>0.4442054285695107</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.71057019711211</v>
+        <v>3.1122635</v>
       </c>
       <c r="N20">
-        <v>1.71057019711211</v>
+        <v>6.224527</v>
       </c>
       <c r="O20">
-        <v>0.1613142772044078</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P20">
-        <v>0.1613142772044078</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q20">
-        <v>293.1850460057074</v>
+        <v>1650.634081270277</v>
       </c>
       <c r="R20">
-        <v>293.1850460057074</v>
+        <v>9903.804487621663</v>
       </c>
       <c r="S20">
-        <v>0.02248476299339458</v>
+        <v>0.1163077656133595</v>
       </c>
       <c r="T20">
-        <v>0.02248476299339458</v>
+        <v>0.1027036125402899</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>171.396091490826</v>
+        <v>530.364502</v>
       </c>
       <c r="H21">
-        <v>171.396091490826</v>
+        <v>1591.093506</v>
       </c>
       <c r="I21">
-        <v>0.1393848293099515</v>
+        <v>0.4121353325111727</v>
       </c>
       <c r="J21">
-        <v>0.1393848293099515</v>
+        <v>0.4442054285695107</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.04756672882646</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N21">
-        <v>3.04756672882646</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O21">
-        <v>0.2873989181635564</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P21">
-        <v>0.2873989181635564</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q21">
-        <v>522.3410258783372</v>
+        <v>1598.422789841305</v>
       </c>
       <c r="R21">
-        <v>522.3410258783372</v>
+        <v>14385.80510857175</v>
       </c>
       <c r="S21">
-        <v>0.04005904915209203</v>
+        <v>0.1126288287037215</v>
       </c>
       <c r="T21">
-        <v>0.04005904915209203</v>
+        <v>0.1491824839431662</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>28.2211646303415</v>
+        <v>530.364502</v>
       </c>
       <c r="H22">
-        <v>28.2211646303415</v>
+        <v>1591.093506</v>
       </c>
       <c r="I22">
-        <v>0.02295036124052302</v>
+        <v>0.4121353325111727</v>
       </c>
       <c r="J22">
-        <v>0.02295036124052302</v>
+        <v>0.4442054285695107</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>3.11164899610158</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N22">
-        <v>3.11164899610158</v>
+        <v>0.049457</v>
       </c>
       <c r="O22">
-        <v>0.2934421572218294</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P22">
-        <v>0.2934421572218294</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q22">
-        <v>87.81435859081955</v>
+        <v>8.743412391804666</v>
       </c>
       <c r="R22">
-        <v>87.81435859081955</v>
+        <v>78.69071152624201</v>
       </c>
       <c r="S22">
-        <v>0.006734603511439338</v>
+        <v>0.0006160824925802846</v>
       </c>
       <c r="T22">
-        <v>0.006734603511439338</v>
+        <v>0.0008160318953400185</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>28.2211646303415</v>
+        <v>530.364502</v>
       </c>
       <c r="H23">
-        <v>28.2211646303415</v>
+        <v>1591.093506</v>
       </c>
       <c r="I23">
-        <v>0.02295036124052302</v>
+        <v>0.4121353325111727</v>
       </c>
       <c r="J23">
-        <v>0.02295036124052302</v>
+        <v>0.4442054285695107</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>2.73417441399742</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N23">
-        <v>2.73417441399742</v>
+        <v>0.213661</v>
       </c>
       <c r="O23">
-        <v>0.2578446474102063</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P23">
-        <v>0.2578446474102063</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q23">
-        <v>77.16158626548868</v>
+        <v>37.77273662060734</v>
       </c>
       <c r="R23">
-        <v>77.16158626548868</v>
+        <v>339.9546295854661</v>
       </c>
       <c r="S23">
-        <v>0.005917627801999524</v>
+        <v>0.00266156057680806</v>
       </c>
       <c r="T23">
-        <v>0.005917627801999524</v>
+        <v>0.003525369326692757</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>28.2211646303415</v>
+        <v>530.364502</v>
       </c>
       <c r="H24">
-        <v>28.2211646303415</v>
+        <v>1591.093506</v>
       </c>
       <c r="I24">
-        <v>0.02295036124052302</v>
+        <v>0.4121353325111727</v>
       </c>
       <c r="J24">
-        <v>0.02295036124052302</v>
+        <v>0.4442054285695107</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.71057019711211</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N24">
-        <v>1.71057019711211</v>
+        <v>5.291263</v>
       </c>
       <c r="O24">
-        <v>0.1613142772044078</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P24">
-        <v>0.1613142772044078</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q24">
-        <v>48.27428314445657</v>
+        <v>935.4326886486753</v>
       </c>
       <c r="R24">
-        <v>48.27428314445657</v>
+        <v>8418.894197838079</v>
       </c>
       <c r="S24">
-        <v>0.003702220935095027</v>
+        <v>0.06591290409725285</v>
       </c>
       <c r="T24">
-        <v>0.003702220935095027</v>
+        <v>0.08730491891203494</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>28.2211646303415</v>
+        <v>530.364502</v>
       </c>
       <c r="H25">
-        <v>28.2211646303415</v>
+        <v>1591.093506</v>
       </c>
       <c r="I25">
-        <v>0.02295036124052302</v>
+        <v>0.4121353325111727</v>
       </c>
       <c r="J25">
-        <v>0.02295036124052302</v>
+        <v>0.4442054285695107</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.04756672882646</v>
+        <v>3.0507295</v>
       </c>
       <c r="N25">
-        <v>3.04756672882646</v>
+        <v>6.101459</v>
       </c>
       <c r="O25">
-        <v>0.2873989181635564</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P25">
-        <v>0.2873989181635564</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q25">
-        <v>86.00588237616284</v>
+        <v>1617.998632004209</v>
       </c>
       <c r="R25">
-        <v>86.00588237616284</v>
+        <v>9707.991792025256</v>
       </c>
       <c r="S25">
-        <v>0.006595908991989134</v>
+        <v>0.1140081910274504</v>
       </c>
       <c r="T25">
-        <v>0.006595908991989134</v>
+        <v>0.1006730119519869</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>185.7640076666667</v>
+      </c>
+      <c r="H26">
+        <v>557.292023</v>
+      </c>
+      <c r="I26">
+        <v>0.144353384850613</v>
+      </c>
+      <c r="J26">
+        <v>0.1555861682431407</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.1122635</v>
+      </c>
+      <c r="N26">
+        <v>6.224527</v>
+      </c>
+      <c r="O26">
+        <v>0.2822077032432218</v>
+      </c>
+      <c r="P26">
+        <v>0.2312074682901327</v>
+      </c>
+      <c r="Q26">
+        <v>578.1465406746868</v>
+      </c>
+      <c r="R26">
+        <v>3468.879244048121</v>
+      </c>
+      <c r="S26">
+        <v>0.04073763719407637</v>
+      </c>
+      <c r="T26">
+        <v>0.0359726840604592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>185.7640076666667</v>
+      </c>
+      <c r="H27">
+        <v>557.292023</v>
+      </c>
+      <c r="I27">
+        <v>0.144353384850613</v>
+      </c>
+      <c r="J27">
+        <v>0.1555861682431407</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.013819333333333</v>
+      </c>
+      <c r="N27">
+        <v>9.041457999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.2732811768830041</v>
+      </c>
+      <c r="P27">
+        <v>0.3358411994729183</v>
+      </c>
+      <c r="Q27">
+        <v>559.8591577432815</v>
+      </c>
+      <c r="R27">
+        <v>5038.732419689533</v>
+      </c>
+      <c r="S27">
+        <v>0.03944906289902073</v>
+      </c>
+      <c r="T27">
+        <v>0.05225224536417164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>185.7640076666667</v>
+      </c>
+      <c r="H28">
+        <v>557.292023</v>
+      </c>
+      <c r="I28">
+        <v>0.144353384850613</v>
+      </c>
+      <c r="J28">
+        <v>0.1555861682431407</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01648566666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.049457</v>
+      </c>
+      <c r="O28">
+        <v>0.001494854830393808</v>
+      </c>
+      <c r="P28">
+        <v>0.001837059708990754</v>
+      </c>
+      <c r="Q28">
+        <v>3.062443509056778</v>
+      </c>
+      <c r="R28">
+        <v>27.561991581511</v>
+      </c>
+      <c r="S28">
+        <v>0.0002157873546276351</v>
+      </c>
+      <c r="T28">
+        <v>0.0002858210809557305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>185.7640076666667</v>
+      </c>
+      <c r="H29">
+        <v>557.292023</v>
+      </c>
+      <c r="I29">
+        <v>0.144353384850613</v>
+      </c>
+      <c r="J29">
+        <v>0.1555861682431407</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.07122033333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.213661</v>
+      </c>
+      <c r="O29">
+        <v>0.006457977190625623</v>
+      </c>
+      <c r="P29">
+        <v>0.007936349040230372</v>
+      </c>
+      <c r="Q29">
+        <v>13.23017454735589</v>
+      </c>
+      <c r="R29">
+        <v>119.071570926203</v>
+      </c>
+      <c r="S29">
+        <v>0.000932230866754861</v>
+      </c>
+      <c r="T29">
+        <v>0.001234786137009571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>185.7640076666667</v>
+      </c>
+      <c r="H30">
+        <v>557.292023</v>
+      </c>
+      <c r="I30">
+        <v>0.144353384850613</v>
+      </c>
+      <c r="J30">
+        <v>0.1555861682431407</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.763754333333333</v>
+      </c>
+      <c r="N30">
+        <v>5.291263</v>
+      </c>
+      <c r="O30">
+        <v>0.1599302435334539</v>
+      </c>
+      <c r="P30">
+        <v>0.1965417649063539</v>
+      </c>
+      <c r="Q30">
+        <v>327.6420734994499</v>
+      </c>
+      <c r="R30">
+        <v>2948.778661495049</v>
+      </c>
+      <c r="S30">
+        <v>0.02308647199403693</v>
+      </c>
+      <c r="T30">
+        <v>0.03057918010152378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>185.7640076666667</v>
+      </c>
+      <c r="H31">
+        <v>557.292023</v>
+      </c>
+      <c r="I31">
+        <v>0.144353384850613</v>
+      </c>
+      <c r="J31">
+        <v>0.1555861682431407</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.0507295</v>
+      </c>
+      <c r="N31">
+        <v>6.101459</v>
+      </c>
+      <c r="O31">
+        <v>0.2766280443193008</v>
+      </c>
+      <c r="P31">
+        <v>0.2266361585813741</v>
+      </c>
+      <c r="Q31">
+        <v>566.7157382269262</v>
+      </c>
+      <c r="R31">
+        <v>3400.294429361557</v>
+      </c>
+      <c r="S31">
+        <v>0.03993219454209645</v>
+      </c>
+      <c r="T31">
+        <v>0.03526145149902078</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>28.5147895</v>
+      </c>
+      <c r="H32">
+        <v>57.029579</v>
+      </c>
+      <c r="I32">
+        <v>0.02215825570480695</v>
+      </c>
+      <c r="J32">
+        <v>0.01592165921443574</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.1122635</v>
+      </c>
+      <c r="N32">
+        <v>6.224527</v>
+      </c>
+      <c r="O32">
+        <v>0.2822077032432218</v>
+      </c>
+      <c r="P32">
+        <v>0.2312074682901327</v>
+      </c>
+      <c r="Q32">
+        <v>88.74553857103325</v>
+      </c>
+      <c r="R32">
+        <v>354.982154284133</v>
+      </c>
+      <c r="S32">
+        <v>0.006253230450329585</v>
+      </c>
+      <c r="T32">
+        <v>0.00368120651794795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>28.5147895</v>
+      </c>
+      <c r="H33">
+        <v>57.029579</v>
+      </c>
+      <c r="I33">
+        <v>0.02215825570480695</v>
+      </c>
+      <c r="J33">
+        <v>0.01592165921443574</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.013819333333333</v>
+      </c>
+      <c r="N33">
+        <v>9.041457999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.2732811768830041</v>
+      </c>
+      <c r="P33">
+        <v>0.3358411994729183</v>
+      </c>
+      <c r="Q33">
+        <v>85.93842388103032</v>
+      </c>
+      <c r="R33">
+        <v>515.6305432861819</v>
+      </c>
+      <c r="S33">
+        <v>0.006055434196684183</v>
+      </c>
+      <c r="T33">
+        <v>0.00534714912817514</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>28.5147895</v>
+      </c>
+      <c r="H34">
+        <v>57.029579</v>
+      </c>
+      <c r="I34">
+        <v>0.02215825570480695</v>
+      </c>
+      <c r="J34">
+        <v>0.01592165921443574</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.01648566666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.049457</v>
+      </c>
+      <c r="O34">
+        <v>0.001494854830393808</v>
+      </c>
+      <c r="P34">
+        <v>0.001837059708990754</v>
+      </c>
+      <c r="Q34">
+        <v>0.4700853147671666</v>
+      </c>
+      <c r="R34">
+        <v>2.820511888603</v>
+      </c>
+      <c r="S34">
+        <v>3.312337557343181E-05</v>
+      </c>
+      <c r="T34">
+        <v>2.924903864312127E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>28.5147895</v>
+      </c>
+      <c r="H35">
+        <v>57.029579</v>
+      </c>
+      <c r="I35">
+        <v>0.02215825570480695</v>
+      </c>
+      <c r="J35">
+        <v>0.01592165921443574</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.07122033333333334</v>
+      </c>
+      <c r="N35">
+        <v>0.213661</v>
+      </c>
+      <c r="O35">
+        <v>0.006457977190625623</v>
+      </c>
+      <c r="P35">
+        <v>0.007936349040230372</v>
+      </c>
+      <c r="Q35">
+        <v>2.030832813119833</v>
+      </c>
+      <c r="R35">
+        <v>12.184996878719</v>
+      </c>
+      <c r="S35">
+        <v>0.0001430975099256933</v>
+      </c>
+      <c r="T35">
+        <v>0.0001263598448253621</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>28.5147895</v>
+      </c>
+      <c r="H36">
+        <v>57.029579</v>
+      </c>
+      <c r="I36">
+        <v>0.02215825570480695</v>
+      </c>
+      <c r="J36">
+        <v>0.01592165921443574</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.763754333333333</v>
+      </c>
+      <c r="N36">
+        <v>5.291263</v>
+      </c>
+      <c r="O36">
+        <v>0.1599302435334539</v>
+      </c>
+      <c r="P36">
+        <v>0.1965417649063539</v>
+      </c>
+      <c r="Q36">
+        <v>50.29308354471283</v>
+      </c>
+      <c r="R36">
+        <v>301.758501268277</v>
+      </c>
+      <c r="S36">
+        <v>0.00354377523114632</v>
+      </c>
+      <c r="T36">
+        <v>0.003129271002242712</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>28.5147895</v>
+      </c>
+      <c r="H37">
+        <v>57.029579</v>
+      </c>
+      <c r="I37">
+        <v>0.02215825570480695</v>
+      </c>
+      <c r="J37">
+        <v>0.01592165921443574</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.0507295</v>
+      </c>
+      <c r="N37">
+        <v>6.101459</v>
+      </c>
+      <c r="O37">
+        <v>0.2766280443193008</v>
+      </c>
+      <c r="P37">
+        <v>0.2266361585813741</v>
+      </c>
+      <c r="Q37">
+        <v>86.99090951394025</v>
+      </c>
+      <c r="R37">
+        <v>347.963638055761</v>
+      </c>
+      <c r="S37">
+        <v>0.006129594941147736</v>
+      </c>
+      <c r="T37">
+        <v>0.003608423682601454</v>
       </c>
     </row>
   </sheetData>
